--- a/doc/thor project.xlsx
+++ b/doc/thor project.xlsx
@@ -4,17 +4,70 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能列表" sheetId="1" r:id="rId1"/>
+    <sheet name="工作进展计划" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
+  <si>
+    <t>暂不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP TABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持整型压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持字符串字典压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARTITION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,55 +77,279 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>索引的基本功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂不支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列存存储模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持整型，浮点型，字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持压缩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持分区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持数据导入导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DROP TABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALTER TABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
+    <t>feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE PARTITION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER PARTITION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP PARTITION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持PAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持DSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMERIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ODBC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT_SELECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNION ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT JOIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIGHT JOIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CROSS JOIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INNER JOIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持SNAPPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持ZLIB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP BY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER BY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGGR FUNCTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNCTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPRRESSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FROM SUBQUERY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN SUBQUERY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXIST SUBQUERY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量执行引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIMD指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持久化到HDFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持分布式节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持系统表查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持R语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可靠性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元数据事务支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持REDO LOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可服务性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持执行计划查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持NSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE SCHEMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP SCHEMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE SPACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DROP SPACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER SPACE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入/导出工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专用导入工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPC-H功能支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,111 +699,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.25" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>1</v>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C71" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C77" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -534,4 +1118,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="107" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/thor project.xlsx
+++ b/doc/thor project.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
   <si>
     <t>暂不支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,6 +350,98 @@
   </si>
   <si>
     <t>TPC-H功能支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持定长字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持变长字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持HASH JOIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持NEST JOIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持STAR JOIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持MC JOIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持MERGE SORT JOIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持GROUP BY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持ORDER BY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新规整目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持多线程执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持SIMD指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持分布式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整型压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,12 +465,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -393,8 +491,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1122,15 +1221,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A2:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="107" customWidth="1"/>
+    <col min="3" max="3" width="59.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1144,8 +1243,164 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" t="s">
         <v>83</v>
       </c>
     </row>

--- a/doc/thor project.xlsx
+++ b/doc/thor project.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="109">
   <si>
     <t>暂不支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,6 +442,14 @@
   </si>
   <si>
     <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串中间运算存储支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持字符串相关的运算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1221,15 +1229,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C35"/>
+  <dimension ref="A2:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="59.25" customWidth="1"/>
+    <col min="3" max="3" width="43.375" customWidth="1"/>
+    <col min="4" max="4" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1260,36 +1269,41 @@
         <v>85</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>96</v>
       </c>
       <c r="C8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>97</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>100</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -1297,7 +1311,7 @@
         <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -1305,15 +1319,15 @@
         <v>97</v>
       </c>
       <c r="C16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -1321,7 +1335,7 @@
         <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -1329,15 +1343,15 @@
         <v>97</v>
       </c>
       <c r="C21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -1345,7 +1359,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -1353,7 +1367,7 @@
         <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -1361,7 +1375,7 @@
         <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -1369,15 +1383,15 @@
         <v>100</v>
       </c>
       <c r="C28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -1385,22 +1399,30 @@
         <v>96</v>
       </c>
       <c r="C31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>106</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>93</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>83</v>
       </c>
     </row>

--- a/doc/thor project.xlsx
+++ b/doc/thor project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能列表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="116">
   <si>
     <t>暂不支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,14 +353,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支持定长字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持变长字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支持HASH JOIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -381,10 +373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支持GROUP BY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支持ORDER BY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,10 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支持函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重新规整目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,6 +434,50 @@
   </si>
   <si>
     <t>支持字符串相关的运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持变长字符串字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持定长字符串字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持GROUP BY（HASH)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子查询（exprssion，from，exist，in）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case when</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">limit </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持VIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count(distinct)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持函数（日期函数, 字符串函数）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +501,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,6 +511,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,9 +533,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1229,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C36"/>
+  <dimension ref="A2:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1254,152 +1289,155 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>85</v>
+      <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
-        <v>101</v>
+      <c r="A10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" t="s">
-        <v>87</v>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" t="s">
-        <v>86</v>
+      <c r="A26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="A27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>90</v>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" t="s">
-        <v>103</v>
+      <c r="A31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -1407,22 +1445,55 @@
         <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="A36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
         <v>83</v>
       </c>
     </row>

--- a/doc/thor project.xlsx
+++ b/doc/thor project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能列表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
   <si>
     <t>暂不支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -478,6 +478,42 @@
   </si>
   <si>
     <t>支持函数（日期函数, 字符串函数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 (方便测试性能）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3（最大化性能测试）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2（最大化性能测试）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4（最大化性能测试）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 方便测试其他语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 方便测试其他语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程，工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 便于测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1264,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C41"/>
+  <dimension ref="A2:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1362,7 +1398,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -1370,7 +1406,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
@@ -1378,8 +1414,11 @@
       <c r="C20" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>93</v>
       </c>
@@ -1387,8 +1426,11 @@
       <c r="C21" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>93</v>
       </c>
@@ -1396,8 +1438,11 @@
       <c r="C22" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>108</v>
       </c>
@@ -1405,7 +1450,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
@@ -1414,7 +1459,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>93</v>
       </c>
@@ -1422,8 +1467,11 @@
       <c r="C27" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -1431,7 +1479,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>93</v>
       </c>
@@ -1439,8 +1487,11 @@
       <c r="C31" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -1448,7 +1499,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -1456,7 +1507,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -1464,7 +1515,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>92</v>
       </c>
@@ -1473,7 +1524,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -1481,7 +1532,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -1489,16 +1540,45 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>90</v>
       </c>
       <c r="C41" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/thor project.xlsx
+++ b/doc/thor project.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="功能列表" sheetId="1" r:id="rId1"/>
-    <sheet name="工作进展计划" sheetId="2" r:id="rId2"/>
+    <sheet name="feature &amp; function" sheetId="1" r:id="rId1"/>
+    <sheet name="project" sheetId="2" r:id="rId2"/>
+    <sheet name="open source" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="162">
   <si>
     <t>暂不支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -514,6 +515,153 @@
   </si>
   <si>
     <t>0 便于测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开源软件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPL/BSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他备选软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>miniIni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">zlib/libpng </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinythread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minIni</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easylogging++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MIT </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public Domain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ptypes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式内存库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libevent</t>
+  </si>
+  <si>
+    <t>libuv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iniParser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log4c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libcommon c++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开源数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨平台库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估完成时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +669,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,8 +684,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,6 +713,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -569,10 +732,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1300,255 +1464,292 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D44"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="43.375" customWidth="1"/>
-    <col min="4" max="4" width="34.75" customWidth="1"/>
+    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="E1" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>96</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>93</v>
       </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>96</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+      <c r="E20">
+        <v>9.2799999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26">
+        <v>10.119999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30">
+        <v>10.19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>96</v>
       </c>
-      <c r="C30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>92</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C36" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>102</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C38" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>90</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C40" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42">
+        <v>9.2100000000000009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>93</v>
       </c>
@@ -1556,24 +1757,212 @@
         <v>93</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D44" t="s">
         <v>124</v>
+      </c>
+      <c r="E43">
+        <v>9.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="34.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/doc/thor project.xlsx
+++ b/doc/thor project.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="164">
   <si>
     <t>暂不支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -662,6 +662,14 @@
   </si>
   <si>
     <t>预估完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为时间比较仓促，目前只是搭建了最基本的功能，未优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,7 +702,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,6 +727,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -732,11 +746,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1464,11 +1479,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1476,9 +1491,10 @@
     <col min="3" max="3" width="43.375" customWidth="1"/>
     <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -1491,8 +1507,11 @@
       <c r="E1" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -1500,7 +1519,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>93</v>
       </c>
@@ -1509,7 +1528,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -1517,7 +1536,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -1525,7 +1544,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>93</v>
       </c>
@@ -1534,7 +1553,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -1542,27 +1561,27 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>113</v>
       </c>
@@ -1691,7 +1710,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -1699,7 +1718,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>92</v>
       </c>
@@ -1708,7 +1727,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -1716,7 +1735,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -1724,7 +1743,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -1732,7 +1751,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>93</v>
       </c>
@@ -1749,21 +1768,24 @@
         <v>9.2100000000000009</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="4">
         <v>9.17</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/doc/thor project.xlsx
+++ b/doc/thor project.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="165">
   <si>
     <t>暂不支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -670,6 +670,10 @@
   </si>
   <si>
     <t>因为时间比较仓促，目前只是搭建了最基本的功能，未优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成了基本的导入功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1483,7 +1487,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1648,13 +1652,15 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
@@ -1752,20 +1758,23 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="4">
         <v>9.2100000000000009</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">

--- a/doc/thor project.xlsx
+++ b/doc/thor project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="feature &amp; function" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="172">
   <si>
     <t>暂不支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -674,6 +674,34 @@
   </si>
   <si>
     <t>完成了基本的导入功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liblfds-6.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FREE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免锁数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mintomic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1485,7 +1513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
@@ -1806,11 +1834,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1933,6 +1961,15 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
       <c r="E7" t="s">
         <v>141</v>
       </c>
@@ -1994,6 +2031,25 @@
       </c>
       <c r="G14" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
